--- a/开发文档文件夹/待修复Bug列表.xlsx
+++ b/开发文档文件夹/待修复Bug列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\TerraFlat\开发文档文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Unity\_UnityProject\FlatWorld\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6869E55A-DAF5-4851-B90D-2E2A89EEDFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AA6558-A603-43AC-8644-3ADE94235F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="0" windowWidth="23040" windowHeight="12204" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -486,6 +486,99 @@
   </si>
   <si>
     <t>实现玩家视野缩放模块化且持久化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有存档名称和玩家名称确定后才能创建存档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家进入水面后实现半身入水的效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置面板的显示和隐藏设置 和其初始设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将世界边界切换的启动参数输入改为从输入信号载体获取 ,  从SaveSystem中的激活位置转变为到玩家身上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">修改UI 添加关闭UI的按钮 以及 通过按键打开UI   通过PlayerController组件获取其子对象上暴露出来的UI接口 通过UI接口 控制Mod 控制CanvasGroup 的显示和隐藏 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺便添加序列化装置 方便后续拓展Mod的制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为背包添加UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成UI管理系统 结合Mod完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始页面 设置世界大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化世界设置 在地图生成时增加树木周围掉落的木棍的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整开始游戏时的玩家的初始位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标点击下去就将UI移动到最上层 而不是需要点击才能移动到最上层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品在掉落的时候(旋转生成的时候) 如果切换场景 会导致物体的可拾取标识保存为不可拾取 也就是 动画需要通过程序进行操作 将生成物体并丢弃从单纯的携程改为通过程序控制 程序需要记录好丢弃物品的抛物线 和运行的抛物线的进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将下述设置为一个可生成和销毁的类 在Load时从2进制文件加载类 同时激活类中的初始化函数 
+1.起点 2. 终点 3.抛物线进度 4.抛物线类型(抛物线的函数通过静态函数库的方法)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">背包容量应该为100 而不是101 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能是因为在 添加时 添加的物品大于2 没有拆解递归再次添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保星球是圆的  也就是在左右地图坐标的绝对值&gt;星球的半径时需要回到另一侧 也就是 左侧y轴为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过spritemask实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现mod的热加载和删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化一下Water遮罩的位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +586,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,13 +602,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -527,18 +647,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -947,1441 +1089,2224 @@
   <dimension ref="A1:F170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.6640625" customWidth="1"/>
-    <col min="5" max="5" width="75.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="75.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>45796</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>28</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>45796</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>28</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>45796</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>45796</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>45796</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>22</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>45796</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>22</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>45796</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>45796</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>45796</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>45796</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>45796</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>45796</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>45797</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>622</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>45799</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>28</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>45799</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>28</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>45799</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>45803</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>45803</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>28</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>45805</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>45805</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>626</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>45805</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>45805</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>45806</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>45806</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="C26">
+      <c r="B26" s="3">
+        <v>715</v>
+      </c>
+      <c r="C26" s="3">
         <v>45806</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>45806</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>31</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>45806</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>45807</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>31</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>45807</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>45808</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>45808</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="C33">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3">
         <v>45808</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="C36">
+      <c r="B36" s="3">
+        <v>715</v>
+      </c>
+      <c r="C36" s="3">
         <v>45816</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="C37">
+      <c r="B37" s="3">
+        <v>715</v>
+      </c>
+      <c r="C37" s="3">
         <v>45816</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="C38">
+      <c r="B38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="3">
         <v>45816</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="C39">
+      <c r="B39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="3">
         <v>45816</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="C40">
+      <c r="B40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="3">
         <v>45816</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>45816</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="C42">
+      <c r="B42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="3">
         <v>45816</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="C43">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3">
         <v>45816</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="C44">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3">
         <v>45816</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="C45">
+      <c r="B45" s="3">
+        <v>701</v>
+      </c>
+      <c r="C45" s="3">
         <v>45816</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="C46">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3">
         <v>45817</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="C47">
+      <c r="B47" s="3">
+        <v>715</v>
+      </c>
+      <c r="C47" s="3">
         <v>45817</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="C48">
+      <c r="B48" s="3">
+        <v>715</v>
+      </c>
+      <c r="C48" s="3">
         <v>45817</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="C49">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3">
         <v>45819</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="C50">
+      <c r="B50" s="3">
+        <v>715</v>
+      </c>
+      <c r="C50" s="3">
         <v>45819</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>45819</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="C52">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3">
         <v>45823</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="C53">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3">
         <v>45823</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>45825</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B56" s="3">
+        <v>703</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E56" t="e" vm="1">
+      <c r="E56" s="4" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="C57" t="s">
+      <c r="B57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E57" t="e" vm="2">
+      <c r="E57" s="4" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="C58" t="s">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E58" t="e" vm="3">
+      <c r="E58" s="4" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="C59" t="s">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
         <v>619</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="D61" t="s">
+      <c r="B61" s="3">
+        <v>703</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="C64" t="s">
+      <c r="B64" s="3">
+        <v>701</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="3">
         <v>622</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="D66" t="s">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="E66" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="C67" t="s">
+      <c r="B67" s="6">
+        <v>703</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3">
+        <v>703</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="B69" s="3">
+        <v>714</v>
+      </c>
+      <c r="C69" s="3">
+        <v>703</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3">
+        <v>703</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="B71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="3">
+        <v>704</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="B72" s="3">
+        <v>714</v>
+      </c>
+      <c r="C72" s="3">
+        <v>714</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="B73" s="3">
+        <v>714</v>
+      </c>
+      <c r="C73" s="3">
+        <v>714</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="B74" s="3">
+        <v>715</v>
+      </c>
+      <c r="C74" s="3">
+        <v>714</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="B75" s="3">
+        <v>715</v>
+      </c>
+      <c r="C75" s="3">
+        <v>714</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="B76" s="3">
+        <v>715</v>
+      </c>
+      <c r="C76" s="3">
+        <v>715</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="B77" s="3">
+        <v>716</v>
+      </c>
+      <c r="C77" s="3">
+        <v>715</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="B78" s="3">
+        <v>716</v>
+      </c>
+      <c r="C78" s="3">
+        <v>715</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3">
+        <v>715</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3">
+        <v>715</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3">
+        <v>716</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3">
+        <v>716</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+    </row>
+    <row r="126" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+    </row>
+    <row r="127" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+    </row>
+    <row r="130" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+    </row>
+    <row r="133" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+    </row>
+    <row r="134" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+    </row>
+    <row r="135" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+    </row>
+    <row r="136" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+    </row>
+    <row r="137" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+    </row>
+    <row r="138" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+    </row>
+    <row r="139" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+    </row>
+    <row r="140" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+    </row>
+    <row r="141" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+    </row>
+    <row r="142" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+    </row>
+    <row r="143" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+    </row>
+    <row r="144" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+    </row>
+    <row r="145" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+    </row>
+    <row r="146" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+    </row>
+    <row r="147" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+    </row>
+    <row r="148" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+    </row>
+    <row r="149" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+    </row>
+    <row r="150" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+    </row>
+    <row r="151" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+    </row>
+    <row r="152" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+    </row>
+    <row r="153" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+    </row>
+    <row r="154" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+    </row>
+    <row r="155" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+    </row>
+    <row r="156" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+    </row>
+    <row r="157" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+    </row>
+    <row r="158" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+    </row>
+    <row r="159" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+    </row>
+    <row r="160" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+    </row>
+    <row r="161" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+    </row>
+    <row r="162" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+    </row>
+    <row r="163" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+    </row>
+    <row r="164" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+    </row>
+    <row r="165" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+    </row>
+    <row r="166" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+    </row>
+    <row r="167" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+    </row>
+    <row r="168" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+    </row>
+    <row r="169" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+    </row>
+    <row r="170" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
         <v>169</v>
       </c>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/开发文档文件夹/待修复Bug列表.xlsx
+++ b/开发文档文件夹/待修复Bug列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Unity\_UnityProject\FlatWorld\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AA6558-A603-43AC-8644-3ADE94235F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4630D792-33A5-4B84-BB12-C8E4A263F2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="135">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,10 +395,6 @@
   </si>
   <si>
     <t>0615</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复手动合成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -579,6 +575,42 @@
   </si>
   <si>
     <t>优化一下Water遮罩的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加测试模块信息面板Mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">修复手动合成 设置为Mod </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查并 修复工作台合成装置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过滚轮实现拿起和放下物品  滚轮向下滚拿起一个物品 滚轮向上则是放下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.玩家手持状态 取消UI的显示  2.玩家安装后清除手部的引用  3.深度克隆会克隆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整玩家旋转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作台合成后 使用其会出现Bug 第一次安装会是直接可拾取的状态  玩家自主离开交互程序时退出页面 (调整为Cancel)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作台吞噬物品  也就是无法保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查MODData中是否保存了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +618,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,8 +656,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,6 +675,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -647,15 +692,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,10 +725,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1086,11 +1141,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1C8C8E-C39C-417E-A20E-6E446109D209}">
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1174,7 @@
         <v>30</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -1341,7 +1396,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="3">
         <v>45797</v>
@@ -1409,7 +1464,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="3">
         <v>45803</v>
@@ -1427,7 +1482,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="3">
         <v>45803</v>
@@ -1461,7 +1516,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="3">
         <v>45805</v>
@@ -1493,7 +1548,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="3">
         <v>45805</v>
@@ -1557,7 +1612,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="3">
         <v>45806</v>
@@ -1673,7 +1728,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>53</v>
@@ -1737,7 +1792,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" s="3">
         <v>45816</v>
@@ -1785,7 +1840,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="3">
         <v>45816</v>
@@ -1937,7 +1992,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51" s="3">
         <v>45819</v>
@@ -1964,513 +2019,556 @@
     </row>
     <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>52</v>
-      </c>
-      <c r="B53" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="C53" s="3">
-        <v>45823</v>
+        <v>45825</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>53</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="3">
-        <v>45825</v>
+        <v>54</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="B55" s="3">
+        <v>703</v>
+      </c>
       <c r="C55" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E55" s="4"/>
+      <c r="E55" s="4" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>55</v>
-      </c>
-      <c r="B56" s="3">
-        <v>703</v>
+        <v>56</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="4" t="e" vm="1">
+      <c r="E56" s="4" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>56</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>109</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E57" s="4" t="e" vm="2">
+      <c r="E57" s="4" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E58" s="4" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="B59" s="3">
+        <v>619</v>
+      </c>
       <c r="C59" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="3">
-        <v>619</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="C60" s="3"/>
       <c r="D60" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B61" s="3">
-        <v>703</v>
-      </c>
-      <c r="C61" s="3"/>
+        <v>701</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D61" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>61</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="B62" s="3">
+        <v>622</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="63" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="5"/>
+      <c r="D63" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>63</v>
-      </c>
-      <c r="B64" s="3">
-        <v>701</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
+    <row r="64" spans="1:6" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>66</v>
+      </c>
+      <c r="B64" s="6">
+        <v>703</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>64</v>
-      </c>
-      <c r="B65" s="3">
-        <v>622</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>94</v>
+        <v>67</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3">
+        <v>703</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>96</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>65</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="B66" s="3">
+        <v>714</v>
+      </c>
+      <c r="C66" s="3">
+        <v>703</v>
+      </c>
       <c r="D66" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
-        <v>66</v>
-      </c>
-      <c r="B67" s="6">
+    <row r="67" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>69</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3">
         <v>703</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D67" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>67</v>
-      </c>
-      <c r="B68" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="C68" s="3">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B69" s="3">
         <v>714</v>
       </c>
       <c r="C69" s="3">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F69" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="70" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>69</v>
-      </c>
-      <c r="B70" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="B70" s="3">
+        <v>714</v>
+      </c>
       <c r="C70" s="3">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>70</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>109</v>
+        <v>73</v>
+      </c>
+      <c r="B71" s="3">
+        <v>715</v>
       </c>
       <c r="C71" s="3">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B72" s="3">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C72" s="3">
         <v>714</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="F72" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B73" s="3">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C73" s="3">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B74" s="3">
+        <v>716</v>
+      </c>
+      <c r="C74" s="3">
         <v>715</v>
       </c>
-      <c r="C74" s="3">
-        <v>714</v>
-      </c>
       <c r="D74" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B75" s="3">
+        <v>716</v>
+      </c>
+      <c r="C75" s="3">
         <v>715</v>
       </c>
-      <c r="C75" s="3">
-        <v>714</v>
-      </c>
       <c r="D75" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E75" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B76" s="3">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C76" s="3">
         <v>715</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E76" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>76</v>
-      </c>
-      <c r="B77" s="3">
+    <row r="77" spans="1:6" s="7" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>79</v>
+      </c>
+      <c r="C77" s="7">
+        <v>715</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>80</v>
+      </c>
+      <c r="B78" s="3">
+        <v>717</v>
+      </c>
+      <c r="C78" s="3">
         <v>716</v>
       </c>
-      <c r="C77" s="3">
-        <v>715</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>77</v>
-      </c>
-      <c r="B78" s="3">
-        <v>716</v>
-      </c>
-      <c r="C78" s="3">
-        <v>715</v>
-      </c>
       <c r="D78" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>120</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>78</v>
-      </c>
-      <c r="B79" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="B79" s="3">
+        <v>717</v>
+      </c>
       <c r="C79" s="3">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>122</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>79</v>
-      </c>
-      <c r="B80" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="B80" s="3">
+        <v>718</v>
+      </c>
       <c r="C80" s="3">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>80</v>
-      </c>
-      <c r="B81" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="B81" s="3">
+        <v>718</v>
+      </c>
       <c r="C81" s="3">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>81</v>
-      </c>
-      <c r="B82" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="B82" s="3">
+        <v>721</v>
+      </c>
       <c r="C82" s="3">
-        <v>716</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E82" s="4"/>
+        <v>719</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>82</v>
-      </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="B83" s="3">
+        <v>720</v>
+      </c>
+      <c r="C83" s="3">
+        <v>719</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="4"/>
+      <c r="C84" s="3">
+        <v>719</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="4"/>
+      <c r="C85" s="3">
+        <v>719</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>85</v>
-      </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="B86" s="3">
+        <v>721</v>
+      </c>
+      <c r="C86" s="3">
+        <v>719</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="F86" s="4"/>
     </row>
     <row r="87" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2480,7 +2578,7 @@
     </row>
     <row r="88" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2490,7 +2588,7 @@
     </row>
     <row r="89" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2500,7 +2598,7 @@
     </row>
     <row r="90" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2510,7 +2608,7 @@
     </row>
     <row r="91" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2520,7 +2618,7 @@
     </row>
     <row r="92" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2530,7 +2628,7 @@
     </row>
     <row r="93" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2540,7 +2638,7 @@
     </row>
     <row r="94" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2550,7 +2648,7 @@
     </row>
     <row r="95" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2560,7 +2658,7 @@
     </row>
     <row r="96" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2570,7 +2668,7 @@
     </row>
     <row r="97" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2580,7 +2678,7 @@
     </row>
     <row r="98" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2590,7 +2688,7 @@
     </row>
     <row r="99" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2600,7 +2698,7 @@
     </row>
     <row r="100" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2610,7 +2708,7 @@
     </row>
     <row r="101" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2620,7 +2718,7 @@
     </row>
     <row r="102" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2630,7 +2728,7 @@
     </row>
     <row r="103" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2640,7 +2738,7 @@
     </row>
     <row r="104" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2650,7 +2748,7 @@
     </row>
     <row r="105" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2660,7 +2758,7 @@
     </row>
     <row r="106" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2670,7 +2768,7 @@
     </row>
     <row r="107" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2680,7 +2778,7 @@
     </row>
     <row r="108" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2690,7 +2788,7 @@
     </row>
     <row r="109" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2700,7 +2798,7 @@
     </row>
     <row r="110" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2710,7 +2808,7 @@
     </row>
     <row r="111" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2720,7 +2818,7 @@
     </row>
     <row r="112" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2730,7 +2828,7 @@
     </row>
     <row r="113" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2740,7 +2838,7 @@
     </row>
     <row r="114" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2750,7 +2848,7 @@
     </row>
     <row r="115" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2760,7 +2858,7 @@
     </row>
     <row r="116" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2770,7 +2868,7 @@
     </row>
     <row r="117" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2780,7 +2878,7 @@
     </row>
     <row r="118" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2790,7 +2888,7 @@
     </row>
     <row r="119" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2800,7 +2898,7 @@
     </row>
     <row r="120" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2810,7 +2908,7 @@
     </row>
     <row r="121" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2820,7 +2918,7 @@
     </row>
     <row r="122" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2830,7 +2928,7 @@
     </row>
     <row r="123" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2840,7 +2938,7 @@
     </row>
     <row r="124" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2850,7 +2948,7 @@
     </row>
     <row r="125" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2860,7 +2958,7 @@
     </row>
     <row r="126" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2870,7 +2968,7 @@
     </row>
     <row r="127" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2880,7 +2978,7 @@
     </row>
     <row r="128" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2890,7 +2988,7 @@
     </row>
     <row r="129" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2900,7 +2998,7 @@
     </row>
     <row r="130" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2910,7 +3008,7 @@
     </row>
     <row r="131" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2920,7 +3018,7 @@
     </row>
     <row r="132" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2930,7 +3028,7 @@
     </row>
     <row r="133" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2940,7 +3038,7 @@
     </row>
     <row r="134" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -2950,7 +3048,7 @@
     </row>
     <row r="135" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2960,7 +3058,7 @@
     </row>
     <row r="136" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2970,7 +3068,7 @@
     </row>
     <row r="137" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -2980,7 +3078,7 @@
     </row>
     <row r="138" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2990,7 +3088,7 @@
     </row>
     <row r="139" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -3000,7 +3098,7 @@
     </row>
     <row r="140" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3010,7 +3108,7 @@
     </row>
     <row r="141" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3020,7 +3118,7 @@
     </row>
     <row r="142" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3030,7 +3128,7 @@
     </row>
     <row r="143" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3040,7 +3138,7 @@
     </row>
     <row r="144" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3050,7 +3148,7 @@
     </row>
     <row r="145" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3060,7 +3158,7 @@
     </row>
     <row r="146" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3070,7 +3168,7 @@
     </row>
     <row r="147" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3080,7 +3178,7 @@
     </row>
     <row r="148" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3090,7 +3188,7 @@
     </row>
     <row r="149" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3100,7 +3198,7 @@
     </row>
     <row r="150" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -3110,7 +3208,7 @@
     </row>
     <row r="151" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -3120,7 +3218,7 @@
     </row>
     <row r="152" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -3130,7 +3228,7 @@
     </row>
     <row r="153" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -3140,7 +3238,7 @@
     </row>
     <row r="154" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -3150,7 +3248,7 @@
     </row>
     <row r="155" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -3160,7 +3258,7 @@
     </row>
     <row r="156" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -3170,7 +3268,7 @@
     </row>
     <row r="157" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -3180,7 +3278,7 @@
     </row>
     <row r="158" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -3190,7 +3288,7 @@
     </row>
     <row r="159" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -3200,7 +3298,7 @@
     </row>
     <row r="160" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -3210,7 +3308,7 @@
     </row>
     <row r="161" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -3220,7 +3318,7 @@
     </row>
     <row r="162" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -3230,7 +3328,7 @@
     </row>
     <row r="163" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -3240,7 +3338,7 @@
     </row>
     <row r="164" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -3250,7 +3348,7 @@
     </row>
     <row r="165" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -3260,7 +3358,7 @@
     </row>
     <row r="166" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -3270,7 +3368,7 @@
     </row>
     <row r="167" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -3278,36 +3376,6 @@
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
-        <v>167</v>
-      </c>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-    </row>
-    <row r="169" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
-        <v>168</v>
-      </c>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
-    </row>
-    <row r="170" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
-        <v>169</v>
-      </c>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开发文档文件夹/待修复Bug列表.xlsx
+++ b/开发文档文件夹/待修复Bug列表.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Unity\_UnityProject\FlatWorld\开发文档文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4630D792-33A5-4B84-BB12-C8E4A263F2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F499BEB0-0C1C-471A-9A13-B35FF1B4D49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1C3257B-F98A-4619-B0C9-FFE03A007455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="153">
   <si>
     <t>问题序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -611,6 +612,77 @@
   </si>
   <si>
     <t>检查MODData中是否保存了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待优化</t>
+  </si>
+  <si>
+    <t>待优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>721 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移植玩家的Controller逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善合成台的拆除逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善Item的精力系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复Entity_stone的受击逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系DamageReciver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在需要消耗精力的模块对精力系统添加监听   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加DmageReciver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">完善制作出铁剑的流程 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.获取木头和石头 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.开采石头和煤炭 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.制作熔炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.熔炉添加起火装置 燃料 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技发展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物发展</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1144,8 +1216,8 @@
   <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2413,6 +2485,9 @@
       <c r="A77" s="7">
         <v>79</v>
       </c>
+      <c r="B77" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="C77" s="7">
         <v>715</v>
       </c>
@@ -2520,25 +2595,31 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+    <row r="84" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
         <v>86</v>
       </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3">
+      <c r="B84" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" s="7">
         <v>719</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
+      <c r="E84" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F84" s="8"/>
     </row>
     <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>87</v>
       </c>
-      <c r="B85" s="3"/>
+      <c r="B85" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="C85" s="3">
         <v>719</v>
       </c>
@@ -2570,9 +2651,15 @@
       <c r="A87" s="3">
         <v>89</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="4"/>
+      <c r="B87" s="3">
+        <v>723</v>
+      </c>
+      <c r="C87" s="3">
+        <v>721</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
@@ -2582,8 +2669,12 @@
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="D88" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="F88" s="4"/>
     </row>
     <row r="89" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -2592,8 +2683,12 @@
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
+      <c r="D89" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="F89" s="4"/>
     </row>
     <row r="90" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -2602,8 +2697,12 @@
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
+      <c r="D90" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="F90" s="4"/>
     </row>
     <row r="91" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -2612,7 +2711,9 @@
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="4"/>
+      <c r="D91" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
@@ -3380,4 +3481,48 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862B3159-C4DE-457B-8896-DFF8BD80B1C9}">
+  <dimension ref="O11:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13:P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="11" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>